--- a/Assets/dialogue/scene1.xlsx
+++ b/Assets/dialogue/scene1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>标志</t>
   </si>
@@ -49,6 +49,12 @@
     <t>跳转</t>
   </si>
   <si>
+    <t>bodyExpression</t>
+  </si>
+  <si>
+    <t>portraitExpression</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>我是傻逼</t>
   </si>
   <si>
+    <t>smile</t>
+  </si>
+  <si>
     <t>普通细胞</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>我知道</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>你吃屎吗</t>
   </si>
   <si>
@@ -100,13 +112,16 @@
     <t>玩崩铁</t>
   </si>
   <si>
+    <t>死学狗</t>
+  </si>
+  <si>
+    <t>死妈崩p</t>
+  </si>
+  <si>
+    <t>嘿嘿</t>
+  </si>
+  <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>死学狗</t>
-  </si>
-  <si>
-    <t>死妈崩p</t>
   </si>
 </sst>
 </file>
@@ -1037,18 +1052,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="21.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,244 +1082,368 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/dialogue/scene1.xlsx
+++ b/Assets/dialogue/scene1.xlsx
@@ -64,7 +64,7 @@
     <t>左</t>
   </si>
   <si>
-    <t>我是傻逼</t>
+    <t>我是大傻比</t>
   </si>
   <si>
     <t>smile</t>
@@ -82,7 +82,7 @@
     <t>normal</t>
   </si>
   <si>
-    <t>你吃屎吗</t>
+    <t>你吃大芬吗</t>
   </si>
   <si>
     <t>&amp;</t>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
